--- a/example.xlsx
+++ b/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matias/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matiassolisdelatorre/html/sorteo-bancas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A40A7765-730E-4449-8EEB-1690BB964F21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A117EEC-E8A5-724A-AD1E-352F4BF073AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="13880" xr2:uid="{324778CA-2FB1-1242-9539-6B7A76FCED0C}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="13880" xr2:uid="{324778CA-2FB1-1242-9539-6B7A76FCED0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Apellido</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>DNI</t>
+  </si>
+  <si>
+    <t>Genero</t>
   </si>
 </sst>
 </file>
@@ -385,15 +388,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B58BAD7-74AF-2242-9C67-977E73069167}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,6 +406,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
